--- a/Course2/sources/WiresAS.xlsx
+++ b/Course2/sources/WiresAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\Course2\Course2\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D2F05-364B-44EB-8806-F55A71BB24DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE6F07C-7178-47AB-A287-20C4ABDDD403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A122"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A122"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -832,186 +832,206 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
-        <v>25</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
-        <v>0.34499999999999997</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
-        <v>0.377</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
-        <v>0.44600000000000001</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
-        <v>35</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
-        <v>0.33600000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
-        <v>0.36599999999999999</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
-        <v>0.435</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
-        <v>0.45300000000000001</v>
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
-        <v>50</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
-        <v>0.32500000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
-        <v>0.35499999999999998</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
-        <v>0.42299999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
-        <v>0.441</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
-        <v>70</v>
+        <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
-        <v>0.309</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
-        <v>0.34100000000000003</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
-        <v>0.41</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
-        <v>0.42799999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
-        <v>95</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
-        <v>0.3</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
-        <v>0.33200000000000002</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
-        <v>0.40100000000000002</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
-        <v>0.41899999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
-        <v>120</v>
+        <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
-        <v>0.29199999999999998</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
-        <v>0.32400000000000001</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
-        <v>0.39300000000000002</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
-        <v>0.41099999999999998</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
-        <v>150</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
-        <v>0.31900000000000001</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
-        <v>0.38800000000000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
-        <v>0.40600000000000003</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
-        <v>185</v>
+        <v>0.31900000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
-        <v>0.313</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
-        <v>0.38200000000000001</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
         <v>0.4</v>
       </c>
     </row>

--- a/Course2/sources/WiresAS.xlsx
+++ b/Course2/sources/WiresAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\Course2\Course2\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE6F07C-7178-47AB-A287-20C4ABDDD403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFFECA5-6479-49C7-B18C-C36C1276E268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2168" yWindow="2737" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -397,642 +400,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C11" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C12" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C13" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C14" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C15" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2.06</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C19" s="2">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C20" s="2">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C21" s="2">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C22" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1.38</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C25" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C26" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C27" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C28" s="2">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C29" s="2">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C32" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C33" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C34" s="2">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C35" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C36" s="2">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>0.65</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C39" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C40" s="2">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>265</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C41" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C42" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>269</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C43" s="2">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>0.46</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C46" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>266</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C47" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C48" s="2">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C49" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>431</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C50" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>0.33</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C53" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>323</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C54" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>375</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C55" s="2">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C56" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>504</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C57" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C60" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>419</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C61" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C62" s="2">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C63" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>623</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C64" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>0.21</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C67" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>516</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C68" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C69" s="2">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C70" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>781</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C71" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>510</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>0.17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" s="1">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" s="1">
-        <v>0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" s="1">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" s="1">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" s="1">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" s="1">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" s="1">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" s="1">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" s="1">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="1">
-        <v>0.435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" s="1">
-        <v>0.45300000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" s="1">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" s="1">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" s="1">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" s="1">
-        <v>0.441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" s="1">
-        <v>0.309</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A104" s="1">
-        <v>0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" s="1">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A106" s="1">
-        <v>0.42799999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" s="1">
-        <v>0.33200000000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A110" s="1">
-        <v>0.40100000000000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" s="1">
-        <v>0.41899999999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" s="1">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A114" s="1">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A115" s="1">
-        <v>0.39300000000000002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A116" s="1">
-        <v>0.41099999999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A117" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" s="1">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A119" s="1">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A120" s="1">
-        <v>0.38800000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A121" s="1">
-        <v>0.40600000000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A122" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" s="1">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A124" s="1">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" s="1">
-        <v>0.38200000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A126" s="1">
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>
